--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Sno</t>
   </si>
@@ -51,22 +51,91 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Outbound call to Two number</t>
-  </si>
-  <si>
     <t>outbound_001</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Statuscallback</t>
-  </si>
-  <si>
-    <t>statuscall_001</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>Call Back Completed Status</t>
+  </si>
+  <si>
+    <t>Call back Busy Status</t>
+  </si>
+  <si>
+    <t>Call back Failed Status</t>
+  </si>
+  <si>
+    <t>Call Back Cancelled Status</t>
+  </si>
+  <si>
+    <t>Validation of response code - for Incorrect API Key</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>Validation of response code - for Incorrect API Token</t>
+  </si>
+  <si>
+    <t>Validation of response code -Validation of response code - for Invalid parameters for Incorrect API Key</t>
+  </si>
+  <si>
+    <t>outbound_003</t>
+  </si>
+  <si>
+    <t>outbound_004</t>
+  </si>
+  <si>
+    <t>outbound_005</t>
+  </si>
+  <si>
+    <t>outbound_009</t>
+  </si>
+  <si>
+    <t>outbound_010</t>
+  </si>
+  <si>
+    <t>outbound_011</t>
+  </si>
+  <si>
+    <t>outbound_012</t>
+  </si>
+  <si>
+    <t>TS_008</t>
   </si>
 </sst>
 </file>
@@ -527,23 +596,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
-    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.26953125" customWidth="1"/>
+    <col min="6" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -571,41 +640,161 @@
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
